--- a/df_list_20250115.xlsx
+++ b/df_list_20250115.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="346">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -778,16 +778,293 @@
   </si>
   <si>
     <t>『양수발전소 주변지역 관광자원 개발 기본계획 및 타당성조사 용역』제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>『2025년 최정산 힐링숲 숲해설 및 산림치유 운영사업』제안서 평가위원 후보자 모집 공고</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>경기도_김포시</t>
+  </si>
+  <si>
+    <t>https://www.gimpo.go.kr/portal/ntfcPblancList.do?key=1004&amp;cate_cd=1&amp;searchCnd=40900000000&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>서울5호선 김포검단 연장사업 예비타당성조사 대응 연구용역 제안서 평가위원(후보자) 공개모집</t>
+  </si>
+  <si>
+    <t>A127</t>
+  </si>
+  <si>
+    <t>전라도_정읍시</t>
+  </si>
+  <si>
+    <t>http://eminwon.jeongeup.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
+  </si>
+  <si>
+    <t>2024년 정읍사공원 나무놀이숲 교육 운영 용역 제안서 평가위원 모집공고</t>
+  </si>
+  <si>
+    <t>2025년 정읍사공원 유아숲체험원 교육 운영 용역 제안서 평가위원 모집공...</t>
+  </si>
+  <si>
+    <t>A171</t>
+  </si>
+  <si>
+    <t>경상도_성주군</t>
+  </si>
+  <si>
+    <t>https://www.sj.go.kr/page.do?mnu_uid=1044&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>2025년 성주 참외 낙동강 파크골프장 유료결제스시스템 구축 용역 제안서 평가위원 후보자 모집공고</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>「청도소싸움미디어체험관 가족친화공간조성 영상 및 체험컨텐츠 제작」제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>2025년 제1회 청도군 공공조형물 심의위원회 위원 모집 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자)모집 공고『덕촌리(리도202호선)도로개설공사 외 2개소 실시설계용역 신기술·특허공법』특허공법 선정</t>
+  </si>
+  <si>
+    <t>『덕촌리(리도202호선) 도로개설공사 외 2개소 실시설계용역 중 송서-덕양간 도로개설공사』신기술·특허공법 선정 기술제안서 공법선정 기술제안서 제출</t>
+  </si>
+  <si>
+    <t>『덕촌리(리도202호선)도로개설공사 외 2개소 실시설계용역 중 덕촌리(리도202호선)도로개설공사』신기술·특허공법 선정 기술제안서 공법선정 기술제안서 제출</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>경상도_칠곡군</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+  </si>
+  <si>
+    <t>2025년도 수요특강 모닝인사이트 운영 위탁 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>송파구 노후 사각형거 보수공사 신기술·특허공법 제안서 1차(정량) 평가 결과 및 2차(정성) 평가 안내 공고</t>
+  </si>
+  <si>
+    <t>특정기술(공법) 선정 1차 평가 결과 및 2차 평가 서류 제출 안내 공고 (덕릉로126길 40 일대 등 5개소 원형관로 보강공사 등 4건)</t>
+  </si>
+  <si>
+    <t>2025년 개포공동구 대체관로 구축공사' 양재천 횡단구간 '상수관로 추진공사(세미쉴드)공법' 선정광령 신기술 및 특허공법 선정 공고</t>
+  </si>
+  <si>
+    <t>2025년 소화조 및 저류조 내부 보수공사특정공법(기술) 선정 결과 공고</t>
+  </si>
+  <si>
+    <t>2025년 부산 반려견 순찰대 운영 및 컨설팅 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=1</t>
+  </si>
+  <si>
+    <t>노동관계법령 검토 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>제3차 경기도 인권보장 및 증진 기본계획 수립 연구용역 제안서 평가 예비위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=4</t>
+  </si>
+  <si>
+    <t>신기술 특허 공법 선정계획 공고(가평소방서 옥상 등 방수공사)</t>
+  </si>
+  <si>
+    <t>https://www.chungbuk.go.kr/www/selectGosiPblancList.do?key=422&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>https://www.suwon.go.kr/web/saeallOfr/BD_ofrList.do?q_currPage=3</t>
+  </si>
+  <si>
+    <t>A087</t>
+  </si>
+  <si>
+    <t>강원도_정선군</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeongseon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05,06</t>
+  </si>
+  <si>
+    <t>정선 인재발전소 공간디자인 및 시설·가구 제작·설치사업 제안서 평가위원(...</t>
+  </si>
+  <si>
+    <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>각리근린공원 물놀이장 종합 놀이시설 제안 및 제작설치(협상에 의한 계약,긴급) 취소 공고</t>
+  </si>
+  <si>
+    <t>정중근린공원 물놀이장 종합 놀이시설 제안 및 제작설치(협상에 의한 계약,긴급) 취소공고</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=7</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=9</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>충청도_보은군</t>
+  </si>
+  <si>
+    <t>https://www.boeun.go.kr/www/selectBbsNttList.do?bbsNo=66&amp;key=194&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>「2025년 보은군 학습증진사업(보은 드림 클래스) 운영」 용역 제안서 예비평가위원 모집공고</t>
+  </si>
+  <si>
+    <t>「2025영동세계국악엑스포 입장권 판매대행용역」 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.oc.go.kr/www/selectBbsNttList.do?bbsNo=40&amp;key=236&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>옥천군 중소기업육성자금 융자심의위원회 위원 모집 공고새글</t>
+  </si>
+  <si>
+    <t>아산시 옥외광고심의위원회 위원 명단 공개</t>
+  </si>
+  <si>
+    <t>A120</t>
+  </si>
+  <si>
+    <t>충청도_태안군</t>
+  </si>
+  <si>
+    <t>http://eminwon.taean.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>용역 입찰 공고[태안군보건의료원 이전신축사업 건축설계 용역(제안공모)]</t>
+  </si>
+  <si>
+    <t>A130</t>
+  </si>
+  <si>
+    <t>전라도_부안군</t>
+  </si>
+  <si>
+    <t>https://www.buan.go.kr/board/list.buan?boardId=BBS_0000054&amp;menuCd=DOM_000000103001003000&amp;contentsSid=84&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>2025년 생태녹색관광 활성화 체험 프로그램 운영 제안서 평가위원(후보자) 모집공고</t>
+  </si>
+  <si>
+    <t>수소체험 커뮤니티 센터 전시.체험공간 조성 사업 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>「2025년 광양시 다회용기 재사용 촉진 지원 사업 공모」 제안서 평가결과(보조사업자 선정 결과) 공고</t>
+  </si>
+  <si>
+    <t>https://www.naju.go.kr/www/administration/notice/legislation?page=2</t>
+  </si>
+  <si>
+    <t>https://www.mokpo.go.kr/www/mokpo_news/notification/public_notice?page=3</t>
+  </si>
+  <si>
+    <t>https://www.yeosu.go.kr/www/govt/news/notify?page=1</t>
+  </si>
+  <si>
+    <t>2025년도 제1분기 도로관리심의회 개최 예정 알림 공고새로운글</t>
+  </si>
+  <si>
+    <t>https://www.yeosu.go.kr/www/govt/news/notify?page=3</t>
+  </si>
+  <si>
+    <t>A152</t>
+  </si>
+  <si>
+    <t>전라도_장성군</t>
+  </si>
+  <si>
+    <t>https://www.jangseong.go.kr/home/www/news/jangseong/announcement?page=3</t>
+  </si>
+  <si>
+    <t>2025년 21세기 장성아카데미 위탁용역 제안서 평가위원 ...</t>
+  </si>
+  <si>
+    <t>A159</t>
+  </si>
+  <si>
+    <t>경상도_경주시</t>
+  </si>
+  <si>
+    <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>우선협상대상자 선정 및 제안서 평가 결과 공고(2025 서라벌 아카데미 운영)</t>
+  </si>
+  <si>
+    <t>경주 동궁과 월지 연꽃단지 디지털 야간경관 콘텐츠 제작 및 시스템 구축 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>간편식 제조 포장 실증지원센터 구축 계획 수립용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>용역 제안서 제출안내 공고</t>
+  </si>
+  <si>
+    <t>A164</t>
+  </si>
+  <si>
+    <t>경상도_안동시</t>
+  </si>
+  <si>
+    <t>https://www.andong.go.kr/portal/saeol/gosi/list.do?mId=0401020100</t>
+  </si>
+  <si>
+    <t>안동시티투어 운영 민간위탁 심의위원회 선정 결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.ycg.kr/open.content/ko/administrative/news/announcement/?p=3</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=8</t>
+  </si>
+  <si>
+    <t>https://www.tongyeong.go.kr/00852/00853/00858.web?&amp;cpage=3</t>
+  </si>
+  <si>
+    <t>https://www.hadong.go.kr/media/00012.web?cpage=5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -809,6 +1086,17 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -839,7 +1127,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -850,6 +1138,21 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2693,125 +2996,2386 @@
         <v>45672.47226851852</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F82" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F83" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F84" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E85" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F85" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F86" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F87" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E88" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F88" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E89" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F89" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E90" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F90" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E91" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F91" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E92" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F92" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E93" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F93" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E94" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F94" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F95" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F96" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F97" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F98" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F99" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F100" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F101" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E102" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F102" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E103" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F103" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E104" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F104" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E105" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F105" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F106" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F107" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F108" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F109" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F110" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F111" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F112" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F113" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E114" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F114" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F115" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F116" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E117" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F117" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E118" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F118" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E119" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F119" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F120" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F121" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E122" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F122" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F123" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E124" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F124" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E125" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F125" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E126" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F126" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E127" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F127" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E128" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F128" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E129" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F129" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E130" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F130" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E131" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F131" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E132" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F132" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E133" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F133" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E134" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F134" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E135" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F135" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E136" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F136" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E137" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F137" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E138" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F138" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E139" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F139" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E140" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F140" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E141" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F141" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E142" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F142" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E143" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F143" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E144" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F144" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E145" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F145" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E146" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F146" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E147" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F147" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E148" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F148" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E149" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F149" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E150" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F150" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E151" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F151" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E152" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F152" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E153" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F153" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E154" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F154" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E155" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F155" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E156" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F156" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E157" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F157" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E158" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F158" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E159" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F159" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E160" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F160" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E161" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F161" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E162" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F162" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E163" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F163" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E164" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F164" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E165" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F165" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E166" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F166" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E167" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F167" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E168" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F168" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E169" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F169" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E170" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F170" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E171" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F171" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E172" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F172" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E173" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F173" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E174" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F174" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E175" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F175" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E176" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F176" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E177" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F177" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E178" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F178" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E179" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F179" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E180" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F180" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E181" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F181" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E182" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F182" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E183" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F183" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E184" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F184" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E185" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F185" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E186" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F186" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E187" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F187" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E188" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F188" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E189" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F189" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E190" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F190" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E191" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F191" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E192" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F192" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E193" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F193" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E194" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F194" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E195" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F195" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E196" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F196" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E197" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F197" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E198" s="7">
+        <v>45671.0</v>
+      </c>
+      <c r="F198" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E199" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F199" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E200" s="7">
+        <v>45672.0</v>
+      </c>
+      <c r="F200" s="8">
+        <v>45672.86019675926</v>
+      </c>
+    </row>
     <row r="201" ht="15.75" customHeight="1"/>
     <row r="202" ht="15.75" customHeight="1"/>
     <row r="203" ht="15.75" customHeight="1"/>
@@ -3613,9 +6177,130 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C82"/>
+    <hyperlink r:id="rId2" ref="C83"/>
+    <hyperlink r:id="rId3" ref="C84"/>
+    <hyperlink r:id="rId4" ref="C85"/>
+    <hyperlink r:id="rId5" ref="C86"/>
+    <hyperlink r:id="rId6" ref="C87"/>
+    <hyperlink r:id="rId7" ref="C88"/>
+    <hyperlink r:id="rId8" ref="C89"/>
+    <hyperlink r:id="rId9" ref="C90"/>
+    <hyperlink r:id="rId10" ref="C91"/>
+    <hyperlink r:id="rId11" ref="C92"/>
+    <hyperlink r:id="rId12" ref="C93"/>
+    <hyperlink r:id="rId13" ref="C94"/>
+    <hyperlink r:id="rId14" ref="C95"/>
+    <hyperlink r:id="rId15" ref="C96"/>
+    <hyperlink r:id="rId16" ref="C97"/>
+    <hyperlink r:id="rId17" ref="C98"/>
+    <hyperlink r:id="rId18" ref="C99"/>
+    <hyperlink r:id="rId19" ref="C100"/>
+    <hyperlink r:id="rId20" ref="C101"/>
+    <hyperlink r:id="rId21" location="list/1" ref="C102"/>
+    <hyperlink r:id="rId22" location="list/1" ref="C103"/>
+    <hyperlink r:id="rId23" location="list/1" ref="C104"/>
+    <hyperlink r:id="rId24" location="list/1" ref="C105"/>
+    <hyperlink r:id="rId25" location="list/1" ref="C106"/>
+    <hyperlink r:id="rId26" location="list/1" ref="C107"/>
+    <hyperlink r:id="rId27" location="list/1" ref="C108"/>
+    <hyperlink r:id="rId28" location="list/1" ref="C109"/>
+    <hyperlink r:id="rId29" location="list/1" ref="C110"/>
+    <hyperlink r:id="rId30" ref="C111"/>
+    <hyperlink r:id="rId31" ref="C112"/>
+    <hyperlink r:id="rId32" ref="C113"/>
+    <hyperlink r:id="rId33" ref="C114"/>
+    <hyperlink r:id="rId34" ref="C115"/>
+    <hyperlink r:id="rId35" ref="C116"/>
+    <hyperlink r:id="rId36" location="page=1" ref="C117"/>
+    <hyperlink r:id="rId37" location="page=1" ref="C118"/>
+    <hyperlink r:id="rId38" location="page=4" ref="C119"/>
+    <hyperlink r:id="rId39" ref="C120"/>
+    <hyperlink r:id="rId40" ref="C121"/>
+    <hyperlink r:id="rId41" ref="C122"/>
+    <hyperlink r:id="rId42" ref="C123"/>
+    <hyperlink r:id="rId43" ref="C124"/>
+    <hyperlink r:id="rId44" ref="C125"/>
+    <hyperlink r:id="rId45" ref="C126"/>
+    <hyperlink r:id="rId46" ref="C127"/>
+    <hyperlink r:id="rId47" ref="C128"/>
+    <hyperlink r:id="rId48" ref="C129"/>
+    <hyperlink r:id="rId49" ref="C130"/>
+    <hyperlink r:id="rId50" ref="C131"/>
+    <hyperlink r:id="rId51" ref="C132"/>
+    <hyperlink r:id="rId52" ref="C133"/>
+    <hyperlink r:id="rId53" ref="C134"/>
+    <hyperlink r:id="rId54" ref="C135"/>
+    <hyperlink r:id="rId55" ref="C136"/>
+    <hyperlink r:id="rId56" ref="C137"/>
+    <hyperlink r:id="rId57" ref="C138"/>
+    <hyperlink r:id="rId58" ref="C139"/>
+    <hyperlink r:id="rId59" ref="C140"/>
+    <hyperlink r:id="rId60" ref="C141"/>
+    <hyperlink r:id="rId61" ref="C142"/>
+    <hyperlink r:id="rId62" ref="C143"/>
+    <hyperlink r:id="rId63" ref="C144"/>
+    <hyperlink r:id="rId64" ref="C145"/>
+    <hyperlink r:id="rId65" ref="C146"/>
+    <hyperlink r:id="rId66" ref="C147"/>
+    <hyperlink r:id="rId67" ref="C148"/>
+    <hyperlink r:id="rId68" ref="C149"/>
+    <hyperlink r:id="rId69" ref="C150"/>
+    <hyperlink r:id="rId70" ref="C151"/>
+    <hyperlink r:id="rId71" ref="C152"/>
+    <hyperlink r:id="rId72" ref="C153"/>
+    <hyperlink r:id="rId73" ref="C154"/>
+    <hyperlink r:id="rId74" ref="C155"/>
+    <hyperlink r:id="rId75" ref="C156"/>
+    <hyperlink r:id="rId76" ref="C157"/>
+    <hyperlink r:id="rId77" ref="C158"/>
+    <hyperlink r:id="rId78" ref="C159"/>
+    <hyperlink r:id="rId79" ref="C160"/>
+    <hyperlink r:id="rId80" ref="C161"/>
+    <hyperlink r:id="rId81" ref="C162"/>
+    <hyperlink r:id="rId82" ref="C163"/>
+    <hyperlink r:id="rId83" ref="C164"/>
+    <hyperlink r:id="rId84" ref="C165"/>
+    <hyperlink r:id="rId85" ref="C166"/>
+    <hyperlink r:id="rId86" ref="C167"/>
+    <hyperlink r:id="rId87" ref="C168"/>
+    <hyperlink r:id="rId88" ref="C169"/>
+    <hyperlink r:id="rId89" ref="C170"/>
+    <hyperlink r:id="rId90" ref="C171"/>
+    <hyperlink r:id="rId91" ref="C172"/>
+    <hyperlink r:id="rId92" ref="C173"/>
+    <hyperlink r:id="rId93" ref="C174"/>
+    <hyperlink r:id="rId94" ref="C175"/>
+    <hyperlink r:id="rId95" ref="C176"/>
+    <hyperlink r:id="rId96" ref="C177"/>
+    <hyperlink r:id="rId97" ref="C178"/>
+    <hyperlink r:id="rId98" ref="C179"/>
+    <hyperlink r:id="rId99" ref="C180"/>
+    <hyperlink r:id="rId100" ref="C181"/>
+    <hyperlink r:id="rId101" ref="C182"/>
+    <hyperlink r:id="rId102" ref="C183"/>
+    <hyperlink r:id="rId103" ref="C184"/>
+    <hyperlink r:id="rId104" ref="C185"/>
+    <hyperlink r:id="rId105" ref="C186"/>
+    <hyperlink r:id="rId106" ref="C187"/>
+    <hyperlink r:id="rId107" ref="C188"/>
+    <hyperlink r:id="rId108" ref="C189"/>
+    <hyperlink r:id="rId109" ref="C190"/>
+    <hyperlink r:id="rId110" ref="C191"/>
+    <hyperlink r:id="rId111" ref="C192"/>
+    <hyperlink r:id="rId112" ref="C193"/>
+    <hyperlink r:id="rId113" ref="C194"/>
+    <hyperlink r:id="rId114" ref="C195"/>
+    <hyperlink r:id="rId115" ref="C196"/>
+    <hyperlink r:id="rId116" ref="C197"/>
+    <hyperlink r:id="rId117" ref="C198"/>
+    <hyperlink r:id="rId118" ref="C199"/>
+    <hyperlink r:id="rId119" ref="C200"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId120"/>
 </worksheet>
 </file>